--- a/tables/cifar10_vgg_5.xlsx
+++ b/tables/cifar10_vgg_5.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>91.90000000000001</v>
+        <v>85.39999999999998</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -705,7 +705,7 @@
         <v>5.2</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0.4</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>91.3</v>
+        <v>95.8</v>
       </c>
       <c r="G8" t="n">
         <v>100</v>
@@ -901,7 +901,7 @@
         <v>3.1</v>
       </c>
       <c r="F11" t="n">
-        <v>26.9</v>
+        <v>25.6</v>
       </c>
       <c r="G11" t="n">
         <v>83</v>
@@ -919,7 +919,7 @@
         <v>5.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="M11" t="n">
         <v>0.4</v>
@@ -943,7 +943,7 @@
         <v>0.6</v>
       </c>
       <c r="F12" t="n">
-        <v>53.8</v>
+        <v>48.2</v>
       </c>
       <c r="G12" t="n">
         <v>99.3</v>
@@ -961,7 +961,7 @@
         <v>5.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="M12" t="n">
         <v>0.4</v>
@@ -989,7 +989,7 @@
         <v>4.7</v>
       </c>
       <c r="F13" t="n">
-        <v>72</v>
+        <v>68.7</v>
       </c>
       <c r="G13" t="n">
         <v>85.5</v>
@@ -1007,7 +1007,7 @@
         <v>5.2</v>
       </c>
       <c r="L13" t="n">
-        <v>7.399999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
         <v>0.4</v>
@@ -1031,7 +1031,7 @@
         <v>85.39999999999998</v>
       </c>
       <c r="F14" t="n">
-        <v>40.7</v>
+        <v>44.8</v>
       </c>
       <c r="G14" t="n">
         <v>44.2</v>
@@ -1049,7 +1049,7 @@
         <v>5.2</v>
       </c>
       <c r="L14" t="n">
-        <v>11.2</v>
+        <v>10.3</v>
       </c>
       <c r="M14" t="n">
         <v>0.4</v>
@@ -1119,7 +1119,7 @@
         <v>47</v>
       </c>
       <c r="F16" t="n">
-        <v>3.7</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="G16" t="n">
         <v>64.8</v>
@@ -1137,7 +1137,7 @@
         <v>5.2</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M16" t="n">
         <v>0.4</v>
@@ -1165,7 +1165,7 @@
         <v>39.3</v>
       </c>
       <c r="F17" t="n">
-        <v>21.9</v>
+        <v>15.7</v>
       </c>
       <c r="G17" t="n">
         <v>13.8</v>
@@ -1183,7 +1183,7 @@
         <v>5.2</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="M17" t="n">
         <v>0.4</v>
@@ -1333,7 +1333,7 @@
         <v>56.10000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>9.300000000000001</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G21" t="n">
         <v>100</v>
@@ -1360,14 +1360,276 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>81.69999999999997</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>81.39999999999998</v>
+      </c>
+      <c r="H22" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>95</v>
+      </c>
+      <c r="D23" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="H23" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>83</v>
+      </c>
+      <c r="D24" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>77.10000000000002</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>watermark</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="E25" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F25" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="H25" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E26" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/tables/cifar10_vgg_5.xlsx
+++ b/tables/cifar10_vgg_5.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1578,48 +1578,6 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:H1"/>
@@ -1629,7 +1587,7 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/tables/cifar10_vgg_5.xlsx
+++ b/tables/cifar10_vgg_5.xlsx
@@ -594,10 +594,10 @@
         <v>0.031</v>
       </c>
       <c r="C4" t="n">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="D4" t="n">
-        <v>13.8</v>
+        <v>14.5</v>
       </c>
       <c r="E4" t="n">
         <v>19.2</v>
@@ -612,10 +612,10 @@
         <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="K4" t="n">
         <v>5.2</v>
@@ -636,10 +636,10 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>93.40000000000001</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>94.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -654,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="K5" t="n">
         <v>5.2</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4.100000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K6" t="n">
         <v>5.2</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
         <v>5.2</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.100000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
         <v>6.4</v>
@@ -808,10 +808,10 @@
         <v>1.5</v>
       </c>
       <c r="C9" t="n">
-        <v>17.9</v>
+        <v>17.5</v>
       </c>
       <c r="D9" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="E9" t="n">
         <v>14.7</v>
@@ -826,10 +826,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="K9" t="n">
         <v>5.2</v>
@@ -850,10 +850,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>16.1</v>
+        <v>15.4</v>
       </c>
       <c r="D10" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="E10" t="n">
         <v>8.4</v>
@@ -868,10 +868,10 @@
         <v>6.600000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="K10" t="n">
         <v>5.2</v>
@@ -892,10 +892,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>22.2</v>
+        <v>21.2</v>
       </c>
       <c r="E11" t="n">
         <v>3.1</v>
@@ -910,10 +910,10 @@
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>4.100000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>5.800000000000002</v>
+        <v>6.4</v>
       </c>
       <c r="K11" t="n">
         <v>5.2</v>
@@ -934,10 +934,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>23.5</v>
+        <v>26</v>
       </c>
       <c r="D12" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="E12" t="n">
         <v>0.6</v>
@@ -952,10 +952,10 @@
         <v>0.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="K12" t="n">
         <v>5.2</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>7.000000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="D13" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="E13" t="n">
         <v>4.7</v>
@@ -998,10 +998,10 @@
         <v>94.09999999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="K13" t="n">
         <v>5.2</v>
@@ -1022,10 +1022,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>7.000000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="D14" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E14" t="n">
         <v>85.39999999999998</v>
@@ -1040,10 +1040,10 @@
         <v>0.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="K14" t="n">
         <v>5.2</v>
@@ -1064,10 +1064,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>7.000000000000001</v>
+        <v>7.199999999999998</v>
       </c>
       <c r="D15" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="E15" t="n">
         <v>75.7</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>6.600000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="K15" t="n">
         <v>5.2</v>
@@ -1110,10 +1110,10 @@
         <v>1e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>71</v>
+        <v>70.89999999999998</v>
       </c>
       <c r="D16" t="n">
-        <v>72.39999999999998</v>
+        <v>72.3</v>
       </c>
       <c r="E16" t="n">
         <v>47</v>
@@ -1128,10 +1128,10 @@
         <v>6.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="K16" t="n">
         <v>5.2</v>
@@ -1156,10 +1156,10 @@
         <v>0.031</v>
       </c>
       <c r="C17" t="n">
-        <v>18.4</v>
+        <v>17.7</v>
       </c>
       <c r="D17" t="n">
-        <v>22.2</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
         <v>39.3</v>
@@ -1174,10 +1174,10 @@
         <v>8.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4.100000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K17" t="n">
         <v>5.2</v>
@@ -1198,7 +1198,7 @@
         <v>0.3</v>
       </c>
       <c r="C18" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D18" t="n">
         <v>99.59999999999999</v>
@@ -1216,10 +1216,10 @@
         <v>7.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K18" t="n">
         <v>5.2</v>
@@ -1261,7 +1261,7 @@
         <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K19" t="n">
         <v>5.2</v>
@@ -1300,10 +1300,10 @@
         <v>6.9</v>
       </c>
       <c r="I20" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="K20" t="n">
         <v>5.2</v>
@@ -1342,10 +1342,10 @@
         <v>6.9</v>
       </c>
       <c r="I21" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="J21" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="K21" t="n">
         <v>5.2</v>
@@ -1370,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>81.3</v>
+        <v>80.10000000000002</v>
       </c>
       <c r="D22" t="n">
-        <v>81.69999999999997</v>
+        <v>81.5</v>
       </c>
       <c r="E22" t="n">
         <v>96.90000000000001</v>
@@ -1388,7 +1388,7 @@
         <v>74.09999999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
         <v>6.4</v>
@@ -1412,7 +1412,7 @@
         <v>0.5</v>
       </c>
       <c r="C23" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="D23" t="n">
         <v>95.09999999999999</v>
@@ -1430,7 +1430,7 @@
         <v>94.7</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J23" t="n">
         <v>6.4</v>
@@ -1454,10 +1454,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>83</v>
+        <v>83.2</v>
       </c>
       <c r="D24" t="n">
-        <v>82.3</v>
+        <v>84.39999999999998</v>
       </c>
       <c r="E24" t="n">
         <v>82.3</v>
@@ -1475,7 +1475,7 @@
         <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="K24" t="n">
         <v>5.2</v>
@@ -1500,7 +1500,7 @@
         <v>0.3</v>
       </c>
       <c r="C25" t="n">
-        <v>91.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="D25" t="n">
         <v>91.90000000000001</v>
@@ -1518,10 +1518,10 @@
         <v>91.40000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
-        <v>6.600000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="K25" t="n">
         <v>5.2</v>
@@ -1542,10 +1542,10 @@
         <v>0.6</v>
       </c>
       <c r="C26" t="n">
-        <v>40.40000000000001</v>
+        <v>40.6</v>
       </c>
       <c r="D26" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="E26" t="n">
         <v>51.2</v>
@@ -1560,10 +1560,10 @@
         <v>40.3</v>
       </c>
       <c r="I26" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="K26" t="n">
         <v>5.2</v>
